--- a/data/panelapp/uk/Genetic epilepsy syndromes.xlsx
+++ b/data/panelapp/uk/Genetic epilepsy syndromes.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135437</t>
+          <t>2021-10-05 14:20:30.849118</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135450</t>
+          <t>2021-10-05 14:20:30.849126</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135453</t>
+          <t>2021-10-05 14:20:30.849129</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135456</t>
+          <t>2021-10-05 14:20:30.849132</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135459</t>
+          <t>2021-10-05 14:20:30.849135</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135462</t>
+          <t>2021-10-05 14:20:30.849138</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135465</t>
+          <t>2021-10-05 14:20:30.849140</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135468</t>
+          <t>2021-10-05 14:20:30.849143</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135471</t>
+          <t>2021-10-05 14:20:30.849145</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135474</t>
+          <t>2021-10-05 14:20:30.849148</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135477</t>
+          <t>2021-10-05 14:20:30.849150</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135479</t>
+          <t>2021-10-05 14:20:30.849153</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135482</t>
+          <t>2021-10-05 14:20:30.849155</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135485</t>
+          <t>2021-10-05 14:20:30.849158</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135488</t>
+          <t>2021-10-05 14:20:30.849160</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135490</t>
+          <t>2021-10-05 14:20:30.849163</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135494</t>
+          <t>2021-10-05 14:20:30.849166</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135496</t>
+          <t>2021-10-05 14:20:30.849168</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135499</t>
+          <t>2021-10-05 14:20:30.849171</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135502</t>
+          <t>2021-10-05 14:20:30.849173</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135505</t>
+          <t>2021-10-05 14:20:30.849176</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135508</t>
+          <t>2021-10-05 14:20:30.849178</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135510</t>
+          <t>2021-10-05 14:20:30.849181</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135513</t>
+          <t>2021-10-05 14:20:30.849183</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135516</t>
+          <t>2021-10-05 14:20:30.849186</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135520</t>
+          <t>2021-10-05 14:20:30.849189</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135522</t>
+          <t>2021-10-05 14:20:30.849192</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135525</t>
+          <t>2021-10-05 14:20:30.849194</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135528</t>
+          <t>2021-10-05 14:20:30.849197</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135531</t>
+          <t>2021-10-05 14:20:30.849199</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135534</t>
+          <t>2021-10-05 14:20:30.849202</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135537</t>
+          <t>2021-10-05 14:20:30.849204</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135540</t>
+          <t>2021-10-05 14:20:30.849207</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135543</t>
+          <t>2021-10-05 14:20:30.849210</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135545</t>
+          <t>2021-10-05 14:20:30.849212</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135548</t>
+          <t>2021-10-05 14:20:30.849215</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135551</t>
+          <t>2021-10-05 14:20:30.849217</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135554</t>
+          <t>2021-10-05 14:20:30.849220</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135557</t>
+          <t>2021-10-05 14:20:30.849222</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135560</t>
+          <t>2021-10-05 14:20:30.849225</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135563</t>
+          <t>2021-10-05 14:20:30.849227</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135566</t>
+          <t>2021-10-05 14:20:30.849230</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135568</t>
+          <t>2021-10-05 14:20:30.849233</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135571</t>
+          <t>2021-10-05 14:20:30.849235</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135574</t>
+          <t>2021-10-05 14:20:30.849238</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135577</t>
+          <t>2021-10-05 14:20:30.849240</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135580</t>
+          <t>2021-10-05 14:20:30.849243</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135583</t>
+          <t>2021-10-05 14:20:30.849245</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135586</t>
+          <t>2021-10-05 14:20:30.849248</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135588</t>
+          <t>2021-10-05 14:20:30.849250</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135591</t>
+          <t>2021-10-05 14:20:30.849253</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135594</t>
+          <t>2021-10-05 14:20:30.849255</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135597</t>
+          <t>2021-10-05 14:20:30.849258</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135601</t>
+          <t>2021-10-05 14:20:30.849260</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135603</t>
+          <t>2021-10-05 14:20:30.849263</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135606</t>
+          <t>2021-10-05 14:20:30.849266</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135609</t>
+          <t>2021-10-05 14:20:30.849268</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135612</t>
+          <t>2021-10-05 14:20:30.849270</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135616</t>
+          <t>2021-10-05 14:20:30.849273</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135619</t>
+          <t>2021-10-05 14:20:30.849275</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135622</t>
+          <t>2021-10-05 14:20:30.849278</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135625</t>
+          <t>2021-10-05 14:20:30.849280</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135628</t>
+          <t>2021-10-05 14:20:30.849283</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135630</t>
+          <t>2021-10-05 14:20:30.849285</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135635</t>
+          <t>2021-10-05 14:20:30.849289</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135638</t>
+          <t>2021-10-05 14:20:30.849292</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135641</t>
+          <t>2021-10-05 14:20:30.849294</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135644</t>
+          <t>2021-10-05 14:20:30.849297</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135647</t>
+          <t>2021-10-05 14:20:30.849299</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135649</t>
+          <t>2021-10-05 14:20:30.849302</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135652</t>
+          <t>2021-10-05 14:20:30.849304</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135655</t>
+          <t>2021-10-05 14:20:30.849307</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135657</t>
+          <t>2021-10-05 14:20:30.849309</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135660</t>
+          <t>2021-10-05 14:20:30.849311</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135663</t>
+          <t>2021-10-05 14:20:30.849314</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135665</t>
+          <t>2021-10-05 14:20:30.849316</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135670</t>
+          <t>2021-10-05 14:20:30.849321</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135674</t>
+          <t>2021-10-05 14:20:30.849324</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135677</t>
+          <t>2021-10-05 14:20:30.849327</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135679</t>
+          <t>2021-10-05 14:20:30.849329</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135682</t>
+          <t>2021-10-05 14:20:30.849332</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135685</t>
+          <t>2021-10-05 14:20:30.849334</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135688</t>
+          <t>2021-10-05 14:20:30.849337</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135691</t>
+          <t>2021-10-05 14:20:30.849339</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135693</t>
+          <t>2021-10-05 14:20:30.849342</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135696</t>
+          <t>2021-10-05 14:20:30.849344</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135699</t>
+          <t>2021-10-05 14:20:30.849347</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135702</t>
+          <t>2021-10-05 14:20:30.849349</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135704</t>
+          <t>2021-10-05 14:20:30.849352</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135707</t>
+          <t>2021-10-05 14:20:30.849354</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135710</t>
+          <t>2021-10-05 14:20:30.849357</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135713</t>
+          <t>2021-10-05 14:20:30.849359</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135717</t>
+          <t>2021-10-05 14:20:30.849363</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135720</t>
+          <t>2021-10-05 14:20:30.849366</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135723</t>
+          <t>2021-10-05 14:20:30.849368</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135726</t>
+          <t>2021-10-05 14:20:30.849371</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135729</t>
+          <t>2021-10-05 14:20:30.849373</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135732</t>
+          <t>2021-10-05 14:20:30.849376</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135734</t>
+          <t>2021-10-05 14:20:30.849378</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135737</t>
+          <t>2021-10-05 14:20:30.849381</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135740</t>
+          <t>2021-10-05 14:20:30.849383</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135743</t>
+          <t>2021-10-05 14:20:30.849386</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135745</t>
+          <t>2021-10-05 14:20:30.849388</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135748</t>
+          <t>2021-10-05 14:20:30.849391</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135751</t>
+          <t>2021-10-05 14:20:30.849393</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135753</t>
+          <t>2021-10-05 14:20:30.849396</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135756</t>
+          <t>2021-10-05 14:20:30.849398</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135759</t>
+          <t>2021-10-05 14:20:30.849401</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135764</t>
+          <t>2021-10-05 14:20:30.849405</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135768</t>
+          <t>2021-10-05 14:20:30.849409</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135771</t>
+          <t>2021-10-05 14:20:30.849411</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135773</t>
+          <t>2021-10-05 14:20:30.849414</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135776</t>
+          <t>2021-10-05 14:20:30.849416</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135779</t>
+          <t>2021-10-05 14:20:30.849419</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135782</t>
+          <t>2021-10-05 14:20:30.849421</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135784</t>
+          <t>2021-10-05 14:20:30.849424</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135787</t>
+          <t>2021-10-05 14:20:30.849426</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135790</t>
+          <t>2021-10-05 14:20:30.849429</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135792</t>
+          <t>2021-10-05 14:20:30.849431</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135795</t>
+          <t>2021-10-05 14:20:30.849434</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135798</t>
+          <t>2021-10-05 14:20:30.849436</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135801</t>
+          <t>2021-10-05 14:20:30.849438</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135803</t>
+          <t>2021-10-05 14:20:30.849441</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135806</t>
+          <t>2021-10-05 14:20:30.849444</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135809</t>
+          <t>2021-10-05 14:20:30.849446</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135812</t>
+          <t>2021-10-05 14:20:30.849448</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135815</t>
+          <t>2021-10-05 14:20:30.849451</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135818</t>
+          <t>2021-10-05 14:20:30.849453</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135823</t>
+          <t>2021-10-05 14:20:30.849458</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135826</t>
+          <t>2021-10-05 14:20:30.849461</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135829</t>
+          <t>2021-10-05 14:20:30.849463</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135832</t>
+          <t>2021-10-05 14:20:30.849466</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135834</t>
+          <t>2021-10-05 14:20:30.849469</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135837</t>
+          <t>2021-10-05 14:20:30.849471</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135840</t>
+          <t>2021-10-05 14:20:30.849473</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135842</t>
+          <t>2021-10-05 14:20:30.849476</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135845</t>
+          <t>2021-10-05 14:20:30.849479</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135848</t>
+          <t>2021-10-05 14:20:30.849481</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135851</t>
+          <t>2021-10-05 14:20:30.849484</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135854</t>
+          <t>2021-10-05 14:20:30.849486</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135857</t>
+          <t>2021-10-05 14:20:30.849489</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135859</t>
+          <t>2021-10-05 14:20:30.849491</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135862</t>
+          <t>2021-10-05 14:20:30.849494</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135865</t>
+          <t>2021-10-05 14:20:30.849497</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135868</t>
+          <t>2021-10-05 14:20:30.849499</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135871</t>
+          <t>2021-10-05 14:20:30.849502</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135874</t>
+          <t>2021-10-05 14:20:30.849504</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135876</t>
+          <t>2021-10-05 14:20:30.849507</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135880</t>
+          <t>2021-10-05 14:20:30.849509</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135883</t>
+          <t>2021-10-05 14:20:30.849512</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135885</t>
+          <t>2021-10-05 14:20:30.849515</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135888</t>
+          <t>2021-10-05 14:20:30.849517</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135891</t>
+          <t>2021-10-05 14:20:30.849519</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135893</t>
+          <t>2021-10-05 14:20:30.849522</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135896</t>
+          <t>2021-10-05 14:20:30.849524</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135899</t>
+          <t>2021-10-05 14:20:30.849527</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135902</t>
+          <t>2021-10-05 14:20:30.849529</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135905</t>
+          <t>2021-10-05 14:20:30.849532</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135907</t>
+          <t>2021-10-05 14:20:30.849534</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135910</t>
+          <t>2021-10-05 14:20:30.849537</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135913</t>
+          <t>2021-10-05 14:20:30.849539</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135915</t>
+          <t>2021-10-05 14:20:30.849542</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135918</t>
+          <t>2021-10-05 14:20:30.849544</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135921</t>
+          <t>2021-10-05 14:20:30.849547</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135924</t>
+          <t>2021-10-05 14:20:30.849549</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135927</t>
+          <t>2021-10-05 14:20:30.849552</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135930</t>
+          <t>2021-10-05 14:20:30.849554</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135933</t>
+          <t>2021-10-05 14:20:30.849557</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135935</t>
+          <t>2021-10-05 14:20:30.849559</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135938</t>
+          <t>2021-10-05 14:20:30.849562</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135941</t>
+          <t>2021-10-05 14:20:30.849565</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135943</t>
+          <t>2021-10-05 14:20:30.849567</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135948</t>
+          <t>2021-10-05 14:20:30.849571</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135951</t>
+          <t>2021-10-05 14:20:30.849574</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135958</t>
+          <t>2021-10-05 14:20:30.849577</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135961</t>
+          <t>2021-10-05 14:20:30.849579</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135964</t>
+          <t>2021-10-05 14:20:30.849582</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135966</t>
+          <t>2021-10-05 14:20:30.849584</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135969</t>
+          <t>2021-10-05 14:20:30.849587</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135972</t>
+          <t>2021-10-05 14:20:30.849589</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135975</t>
+          <t>2021-10-05 14:20:30.849592</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135977</t>
+          <t>2021-10-05 14:20:30.849594</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135980</t>
+          <t>2021-10-05 14:20:30.849597</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135983</t>
+          <t>2021-10-05 14:20:30.849599</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135985</t>
+          <t>2021-10-05 14:20:30.849602</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135988</t>
+          <t>2021-10-05 14:20:30.849604</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135991</t>
+          <t>2021-10-05 14:20:30.849607</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135994</t>
+          <t>2021-10-05 14:20:30.849609</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135997</t>
+          <t>2021-10-05 14:20:30.849612</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.135999</t>
+          <t>2021-10-05 14:20:30.849614</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136002</t>
+          <t>2021-10-05 14:20:30.849617</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136005</t>
+          <t>2021-10-05 14:20:30.849619</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136007</t>
+          <t>2021-10-05 14:20:30.849622</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136010</t>
+          <t>2021-10-05 14:20:30.849624</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136013</t>
+          <t>2021-10-05 14:20:30.849627</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136015</t>
+          <t>2021-10-05 14:20:30.849630</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136018</t>
+          <t>2021-10-05 14:20:30.849632</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136020</t>
+          <t>2021-10-05 14:20:30.849635</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136023</t>
+          <t>2021-10-05 14:20:30.849637</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136026</t>
+          <t>2021-10-05 14:20:30.849640</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136029</t>
+          <t>2021-10-05 14:20:30.849643</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136032</t>
+          <t>2021-10-05 14:20:30.849645</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136034</t>
+          <t>2021-10-05 14:20:30.849648</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136037</t>
+          <t>2021-10-05 14:20:30.849650</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136040</t>
+          <t>2021-10-05 14:20:30.849653</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136042</t>
+          <t>2021-10-05 14:20:30.849655</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136045</t>
+          <t>2021-10-05 14:20:30.849658</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136048</t>
+          <t>2021-10-05 14:20:30.849660</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136050</t>
+          <t>2021-10-05 14:20:30.849663</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136053</t>
+          <t>2021-10-05 14:20:30.849665</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136056</t>
+          <t>2021-10-05 14:20:30.849667</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136058</t>
+          <t>2021-10-05 14:20:30.849670</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136061</t>
+          <t>2021-10-05 14:20:30.849672</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136064</t>
+          <t>2021-10-05 14:20:30.849675</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136067</t>
+          <t>2021-10-05 14:20:30.849677</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136070</t>
+          <t>2021-10-05 14:20:30.849680</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136073</t>
+          <t>2021-10-05 14:20:30.849682</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136075</t>
+          <t>2021-10-05 14:20:30.849685</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136078</t>
+          <t>2021-10-05 14:20:30.849687</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136081</t>
+          <t>2021-10-05 14:20:30.849690</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136084</t>
+          <t>2021-10-05 14:20:30.849692</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136086</t>
+          <t>2021-10-05 14:20:30.849694</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136089</t>
+          <t>2021-10-05 14:20:30.849697</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136092</t>
+          <t>2021-10-05 14:20:30.849699</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136094</t>
+          <t>2021-10-05 14:20:30.849702</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136097</t>
+          <t>2021-10-05 14:20:30.849704</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136100</t>
+          <t>2021-10-05 14:20:30.849707</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136102</t>
+          <t>2021-10-05 14:20:30.849709</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136105</t>
+          <t>2021-10-05 14:20:30.849712</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136108</t>
+          <t>2021-10-05 14:20:30.849714</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136110</t>
+          <t>2021-10-05 14:20:30.849717</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136113</t>
+          <t>2021-10-05 14:20:30.849719</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136117</t>
+          <t>2021-10-05 14:20:30.849723</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136120</t>
+          <t>2021-10-05 14:20:30.849726</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136123</t>
+          <t>2021-10-05 14:20:30.849728</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136125</t>
+          <t>2021-10-05 14:20:30.849731</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136128</t>
+          <t>2021-10-05 14:20:30.849733</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136131</t>
+          <t>2021-10-05 14:20:30.849736</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136134</t>
+          <t>2021-10-05 14:20:30.849738</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136136</t>
+          <t>2021-10-05 14:20:30.849741</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136139</t>
+          <t>2021-10-05 14:20:30.849743</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136142</t>
+          <t>2021-10-05 14:20:30.849745</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136145</t>
+          <t>2021-10-05 14:20:30.849748</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136147</t>
+          <t>2021-10-05 14:20:30.849750</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136150</t>
+          <t>2021-10-05 14:20:30.849753</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136153</t>
+          <t>2021-10-05 14:20:30.849755</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136156</t>
+          <t>2021-10-05 14:20:30.849758</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136159</t>
+          <t>2021-10-05 14:20:30.849760</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136162</t>
+          <t>2021-10-05 14:20:30.849763</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136164</t>
+          <t>2021-10-05 14:20:30.849765</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136167</t>
+          <t>2021-10-05 14:20:30.849768</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136169</t>
+          <t>2021-10-05 14:20:30.849770</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136172</t>
+          <t>2021-10-05 14:20:30.849772</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136200</t>
+          <t>2021-10-05 14:20:30.849775</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136204</t>
+          <t>2021-10-05 14:20:30.849777</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136207</t>
+          <t>2021-10-05 14:20:30.849780</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136210</t>
+          <t>2021-10-05 14:20:30.849782</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136213</t>
+          <t>2021-10-05 14:20:30.849785</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136216</t>
+          <t>2021-10-05 14:20:30.849787</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136233</t>
+          <t>2021-10-05 14:20:30.849790</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136237</t>
+          <t>2021-10-05 14:20:30.849792</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136240</t>
+          <t>2021-10-05 14:20:30.849795</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136242</t>
+          <t>2021-10-05 14:20:30.849797</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136245</t>
+          <t>2021-10-05 14:20:30.849800</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136248</t>
+          <t>2021-10-05 14:20:30.849802</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136250</t>
+          <t>2021-10-05 14:20:30.849804</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136253</t>
+          <t>2021-10-05 14:20:30.849807</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136256</t>
+          <t>2021-10-05 14:20:30.849809</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136259</t>
+          <t>2021-10-05 14:20:30.849812</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136262</t>
+          <t>2021-10-05 14:20:30.849815</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136265</t>
+          <t>2021-10-05 14:20:30.849817</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136268</t>
+          <t>2021-10-05 14:20:30.849820</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136270</t>
+          <t>2021-10-05 14:20:30.849822</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136273</t>
+          <t>2021-10-05 14:20:30.849824</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136276</t>
+          <t>2021-10-05 14:20:30.849827</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136278</t>
+          <t>2021-10-05 14:20:30.849829</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136281</t>
+          <t>2021-10-05 14:20:30.849832</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136284</t>
+          <t>2021-10-05 14:20:30.849834</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136286</t>
+          <t>2021-10-05 14:20:30.849837</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136289</t>
+          <t>2021-10-05 14:20:30.849839</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136292</t>
+          <t>2021-10-05 14:20:30.849842</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136294</t>
+          <t>2021-10-05 14:20:30.849844</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136297</t>
+          <t>2021-10-05 14:20:30.849846</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136300</t>
+          <t>2021-10-05 14:20:30.849849</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136302</t>
+          <t>2021-10-05 14:20:30.849851</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136305</t>
+          <t>2021-10-05 14:20:30.849854</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136308</t>
+          <t>2021-10-05 14:20:30.849856</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136310</t>
+          <t>2021-10-05 14:20:30.849859</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136313</t>
+          <t>2021-10-05 14:20:30.849861</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136316</t>
+          <t>2021-10-05 14:20:30.849864</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136318</t>
+          <t>2021-10-05 14:20:30.849866</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136321</t>
+          <t>2021-10-05 14:20:30.849869</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136324</t>
+          <t>2021-10-05 14:20:30.849871</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136326</t>
+          <t>2021-10-05 14:20:30.849874</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136329</t>
+          <t>2021-10-05 14:20:30.849876</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136331</t>
+          <t>2021-10-05 14:20:30.849879</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136334</t>
+          <t>2021-10-05 14:20:30.849881</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136337</t>
+          <t>2021-10-05 14:20:30.849884</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136339</t>
+          <t>2021-10-05 14:20:30.849886</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136342</t>
+          <t>2021-10-05 14:20:30.849889</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136345</t>
+          <t>2021-10-05 14:20:30.849891</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136347</t>
+          <t>2021-10-05 14:20:30.849894</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136350</t>
+          <t>2021-10-05 14:20:30.849896</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136353</t>
+          <t>2021-10-05 14:20:30.849898</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136356</t>
+          <t>2021-10-05 14:20:30.849901</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136358</t>
+          <t>2021-10-05 14:20:30.849903</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136361</t>
+          <t>2021-10-05 14:20:30.849906</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136363</t>
+          <t>2021-10-05 14:20:30.849908</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136367</t>
+          <t>2021-10-05 14:20:30.849912</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136371</t>
+          <t>2021-10-05 14:20:30.849916</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136373</t>
+          <t>2021-10-05 14:20:30.849918</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136376</t>
+          <t>2021-10-05 14:20:30.849921</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136379</t>
+          <t>2021-10-05 14:20:30.849923</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136382</t>
+          <t>2021-10-05 14:20:30.849926</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136384</t>
+          <t>2021-10-05 14:20:30.849928</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136387</t>
+          <t>2021-10-05 14:20:30.849930</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136390</t>
+          <t>2021-10-05 14:20:30.849933</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136393</t>
+          <t>2021-10-05 14:20:30.849935</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136395</t>
+          <t>2021-10-05 14:20:30.849938</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136398</t>
+          <t>2021-10-05 14:20:30.849940</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136401</t>
+          <t>2021-10-05 14:20:30.849943</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136404</t>
+          <t>2021-10-05 14:20:30.849945</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136407</t>
+          <t>2021-10-05 14:20:30.849948</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136409</t>
+          <t>2021-10-05 14:20:30.849950</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136412</t>
+          <t>2021-10-05 14:20:30.849953</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136415</t>
+          <t>2021-10-05 14:20:30.849955</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136417</t>
+          <t>2021-10-05 14:20:30.849958</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136420</t>
+          <t>2021-10-05 14:20:30.849960</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136423</t>
+          <t>2021-10-05 14:20:30.849963</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136425</t>
+          <t>2021-10-05 14:20:30.849965</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136428</t>
+          <t>2021-10-05 14:20:30.849967</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136431</t>
+          <t>2021-10-05 14:20:30.849970</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136434</t>
+          <t>2021-10-05 14:20:30.849972</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136436</t>
+          <t>2021-10-05 14:20:30.849975</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136439</t>
+          <t>2021-10-05 14:20:30.849977</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136442</t>
+          <t>2021-10-05 14:20:30.849980</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136445</t>
+          <t>2021-10-05 14:20:30.849982</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136447</t>
+          <t>2021-10-05 14:20:30.849985</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136450</t>
+          <t>2021-10-05 14:20:30.849987</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136453</t>
+          <t>2021-10-05 14:20:30.849990</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136456</t>
+          <t>2021-10-05 14:20:30.849992</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136458</t>
+          <t>2021-10-05 14:20:30.849995</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136461</t>
+          <t>2021-10-05 14:20:30.849997</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136464</t>
+          <t>2021-10-05 14:20:30.850000</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136466</t>
+          <t>2021-10-05 14:20:30.850002</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136469</t>
+          <t>2021-10-05 14:20:30.850005</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136472</t>
+          <t>2021-10-05 14:20:30.850007</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136474</t>
+          <t>2021-10-05 14:20:30.850010</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136477</t>
+          <t>2021-10-05 14:20:30.850012</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136480</t>
+          <t>2021-10-05 14:20:30.850015</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136482</t>
+          <t>2021-10-05 14:20:30.850017</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136485</t>
+          <t>2021-10-05 14:20:30.850020</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136490</t>
+          <t>2021-10-05 14:20:30.850023</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136493</t>
+          <t>2021-10-05 14:20:30.850026</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136497</t>
+          <t>2021-10-05 14:20:30.850029</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136499</t>
+          <t>2021-10-05 14:20:30.850031</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136502</t>
+          <t>2021-10-05 14:20:30.850034</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136505</t>
+          <t>2021-10-05 14:20:30.850036</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136508</t>
+          <t>2021-10-05 14:20:30.850038</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136510</t>
+          <t>2021-10-05 14:20:30.850041</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136513</t>
+          <t>2021-10-05 14:20:30.850043</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136516</t>
+          <t>2021-10-05 14:20:30.850046</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136518</t>
+          <t>2021-10-05 14:20:30.850048</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136521</t>
+          <t>2021-10-05 14:20:30.850051</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136524</t>
+          <t>2021-10-05 14:20:30.850053</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136526</t>
+          <t>2021-10-05 14:20:30.850055</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136529</t>
+          <t>2021-10-05 14:20:30.850058</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136532</t>
+          <t>2021-10-05 14:20:30.850060</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136534</t>
+          <t>2021-10-05 14:20:30.850063</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136537</t>
+          <t>2021-10-05 14:20:30.850065</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136540</t>
+          <t>2021-10-05 14:20:30.850068</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136542</t>
+          <t>2021-10-05 14:20:30.850070</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136545</t>
+          <t>2021-10-05 14:20:30.850073</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136548</t>
+          <t>2021-10-05 14:20:30.850075</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136550</t>
+          <t>2021-10-05 14:20:30.850078</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136553</t>
+          <t>2021-10-05 14:20:30.850081</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136556</t>
+          <t>2021-10-05 14:20:30.850083</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136559</t>
+          <t>2021-10-05 14:20:30.850086</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136561</t>
+          <t>2021-10-05 14:20:30.850088</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136564</t>
+          <t>2021-10-05 14:20:30.850091</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136567</t>
+          <t>2021-10-05 14:20:30.850093</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136570</t>
+          <t>2021-10-05 14:20:30.850095</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136573</t>
+          <t>2021-10-05 14:20:30.850098</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136576</t>
+          <t>2021-10-05 14:20:30.850100</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136578</t>
+          <t>2021-10-05 14:20:30.850103</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136581</t>
+          <t>2021-10-05 14:20:30.850105</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136584</t>
+          <t>2021-10-05 14:20:30.850108</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136586</t>
+          <t>2021-10-05 14:20:30.850110</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136589</t>
+          <t>2021-10-05 14:20:30.850113</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136592</t>
+          <t>2021-10-05 14:20:30.850115</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136594</t>
+          <t>2021-10-05 14:20:30.850118</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136597</t>
+          <t>2021-10-05 14:20:30.850120</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136600</t>
+          <t>2021-10-05 14:20:30.850123</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136602</t>
+          <t>2021-10-05 14:20:30.850125</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136605</t>
+          <t>2021-10-05 14:20:30.850127</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136608</t>
+          <t>2021-10-05 14:20:30.850130</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136611</t>
+          <t>2021-10-05 14:20:30.850132</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136613</t>
+          <t>2021-10-05 14:20:30.850135</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136616</t>
+          <t>2021-10-05 14:20:30.850137</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136618</t>
+          <t>2021-10-05 14:20:30.850140</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136622</t>
+          <t>2021-10-05 14:20:30.850144</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136625</t>
+          <t>2021-10-05 14:20:30.850147</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136628</t>
+          <t>2021-10-05 14:20:30.850150</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136631</t>
+          <t>2021-10-05 14:20:30.850152</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136634</t>
+          <t>2021-10-05 14:20:30.850154</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136636</t>
+          <t>2021-10-05 14:20:30.850157</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136639</t>
+          <t>2021-10-05 14:20:30.850159</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136642</t>
+          <t>2021-10-05 14:20:30.850162</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136645</t>
+          <t>2021-10-05 14:20:30.850165</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136647</t>
+          <t>2021-10-05 14:20:30.850167</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136650</t>
+          <t>2021-10-05 14:20:30.850170</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136653</t>
+          <t>2021-10-05 14:20:30.850172</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136656</t>
+          <t>2021-10-05 14:20:30.850175</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136659</t>
+          <t>2021-10-05 14:20:30.850177</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136662</t>
+          <t>2021-10-05 14:20:30.850180</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136664</t>
+          <t>2021-10-05 14:20:30.850183</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136667</t>
+          <t>2021-10-05 14:20:30.850185</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136670</t>
+          <t>2021-10-05 14:20:30.850188</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136673</t>
+          <t>2021-10-05 14:20:30.850190</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136675</t>
+          <t>2021-10-05 14:20:30.850193</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136678</t>
+          <t>2021-10-05 14:20:30.850195</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136680</t>
+          <t>2021-10-05 14:20:30.850198</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136683</t>
+          <t>2021-10-05 14:20:30.850200</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136686</t>
+          <t>2021-10-05 14:20:30.850202</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136688</t>
+          <t>2021-10-05 14:20:30.850205</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136691</t>
+          <t>2021-10-05 14:20:30.850207</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136694</t>
+          <t>2021-10-05 14:20:30.850210</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136697</t>
+          <t>2021-10-05 14:20:30.850212</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136699</t>
+          <t>2021-10-05 14:20:30.850221</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136702</t>
+          <t>2021-10-05 14:20:30.850224</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136705</t>
+          <t>2021-10-05 14:20:30.850227</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136707</t>
+          <t>2021-10-05 14:20:30.850229</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136710</t>
+          <t>2021-10-05 14:20:30.850231</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136712</t>
+          <t>2021-10-05 14:20:30.850234</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136715</t>
+          <t>2021-10-05 14:20:30.850236</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136718</t>
+          <t>2021-10-05 14:20:30.850239</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136720</t>
+          <t>2021-10-05 14:20:30.850241</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136724</t>
+          <t>2021-10-05 14:20:30.850244</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136726</t>
+          <t>2021-10-05 14:20:30.850246</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136729</t>
+          <t>2021-10-05 14:20:30.850248</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136732</t>
+          <t>2021-10-05 14:20:30.850251</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136735</t>
+          <t>2021-10-05 14:20:30.850253</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136738</t>
+          <t>2021-10-05 14:20:30.850256</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136740</t>
+          <t>2021-10-05 14:20:30.850258</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136743</t>
+          <t>2021-10-05 14:20:30.850261</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136746</t>
+          <t>2021-10-05 14:20:30.850263</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136748</t>
+          <t>2021-10-05 14:20:30.850266</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136751</t>
+          <t>2021-10-05 14:20:30.850268</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136754</t>
+          <t>2021-10-05 14:20:30.850271</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136757</t>
+          <t>2021-10-05 14:20:30.850273</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136760</t>
+          <t>2021-10-05 14:20:30.850275</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136763</t>
+          <t>2021-10-05 14:20:30.850278</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136765</t>
+          <t>2021-10-05 14:20:30.850280</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136768</t>
+          <t>2021-10-05 14:20:30.850283</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136771</t>
+          <t>2021-10-05 14:20:30.850285</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136774</t>
+          <t>2021-10-05 14:20:30.850288</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136777</t>
+          <t>2021-10-05 14:20:30.850291</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136781</t>
+          <t>2021-10-05 14:20:30.850294</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136784</t>
+          <t>2021-10-05 14:20:30.850297</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136786</t>
+          <t>2021-10-05 14:20:30.850299</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136789</t>
+          <t>2021-10-05 14:20:30.850302</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136792</t>
+          <t>2021-10-05 14:20:30.850304</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136795</t>
+          <t>2021-10-05 14:20:30.850307</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136797</t>
+          <t>2021-10-05 14:20:30.850309</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136800</t>
+          <t>2021-10-05 14:20:30.850312</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136803</t>
+          <t>2021-10-05 14:20:30.850314</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136805</t>
+          <t>2021-10-05 14:20:30.850316</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136808</t>
+          <t>2021-10-05 14:20:30.850319</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136811</t>
+          <t>2021-10-05 14:20:30.850321</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136814</t>
+          <t>2021-10-05 14:20:30.850324</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136816</t>
+          <t>2021-10-05 14:20:30.850326</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136819</t>
+          <t>2021-10-05 14:20:30.850329</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136822</t>
+          <t>2021-10-05 14:20:30.850331</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136825</t>
+          <t>2021-10-05 14:20:30.850334</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136827</t>
+          <t>2021-10-05 14:20:30.850336</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136830</t>
+          <t>2021-10-05 14:20:30.850339</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136833</t>
+          <t>2021-10-05 14:20:30.850341</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136835</t>
+          <t>2021-10-05 14:20:30.850344</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136838</t>
+          <t>2021-10-05 14:20:30.850346</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136841</t>
+          <t>2021-10-05 14:20:30.850349</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136844</t>
+          <t>2021-10-05 14:20:30.850351</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136846</t>
+          <t>2021-10-05 14:20:30.850353</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136849</t>
+          <t>2021-10-05 14:20:30.850356</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136852</t>
+          <t>2021-10-05 14:20:30.850358</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136854</t>
+          <t>2021-10-05 14:20:30.850361</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136857</t>
+          <t>2021-10-05 14:20:30.850363</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136860</t>
+          <t>2021-10-05 14:20:30.850366</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136862</t>
+          <t>2021-10-05 14:20:30.850368</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136865</t>
+          <t>2021-10-05 14:20:30.850371</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136868</t>
+          <t>2021-10-05 14:20:30.850373</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136871</t>
+          <t>2021-10-05 14:20:30.850375</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136873</t>
+          <t>2021-10-05 14:20:30.850378</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136876</t>
+          <t>2021-10-05 14:20:30.850380</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136879</t>
+          <t>2021-10-05 14:20:30.850383</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136881</t>
+          <t>2021-10-05 14:20:30.850385</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136884</t>
+          <t>2021-10-05 14:20:30.850388</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136887</t>
+          <t>2021-10-05 14:20:30.850390</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136889</t>
+          <t>2021-10-05 14:20:30.850393</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136892</t>
+          <t>2021-10-05 14:20:30.850396</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136895</t>
+          <t>2021-10-05 14:20:30.850398</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136898</t>
+          <t>2021-10-05 14:20:30.850400</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136900</t>
+          <t>2021-10-05 14:20:30.850403</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136903</t>
+          <t>2021-10-05 14:20:30.850405</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136906</t>
+          <t>2021-10-05 14:20:30.850408</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136909</t>
+          <t>2021-10-05 14:20:30.850410</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136912</t>
+          <t>2021-10-05 14:20:30.850413</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136915</t>
+          <t>2021-10-05 14:20:30.850415</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136917</t>
+          <t>2021-10-05 14:20:30.850418</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136920</t>
+          <t>2021-10-05 14:20:30.850420</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136923</t>
+          <t>2021-10-05 14:20:30.850423</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136925</t>
+          <t>2021-10-05 14:20:30.850425</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136928</t>
+          <t>2021-10-05 14:20:30.850428</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136931</t>
+          <t>2021-10-05 14:20:30.850431</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136933</t>
+          <t>2021-10-05 14:20:30.850433</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136936</t>
+          <t>2021-10-05 14:20:30.850436</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136939</t>
+          <t>2021-10-05 14:20:30.850438</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136941</t>
+          <t>2021-10-05 14:20:30.850441</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136944</t>
+          <t>2021-10-05 14:20:30.850443</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136947</t>
+          <t>2021-10-05 14:20:30.850446</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136949</t>
+          <t>2021-10-05 14:20:30.850448</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136954</t>
+          <t>2021-10-05 14:20:30.850452</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136958</t>
+          <t>2021-10-05 14:20:30.850455</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136960</t>
+          <t>2021-10-05 14:20:30.850457</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136963</t>
+          <t>2021-10-05 14:20:30.850460</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136966</t>
+          <t>2021-10-05 14:20:30.850462</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136969</t>
+          <t>2021-10-05 14:20:30.850465</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136972</t>
+          <t>2021-10-05 14:20:30.850467</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136974</t>
+          <t>2021-10-05 14:20:30.850470</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136977</t>
+          <t>2021-10-05 14:20:30.850472</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136980</t>
+          <t>2021-10-05 14:20:30.850475</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136983</t>
+          <t>2021-10-05 14:20:30.850477</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136985</t>
+          <t>2021-10-05 14:20:30.850480</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136988</t>
+          <t>2021-10-05 14:20:30.850483</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136991</t>
+          <t>2021-10-05 14:20:30.850485</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136993</t>
+          <t>2021-10-05 14:20:30.850488</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136996</t>
+          <t>2021-10-05 14:20:30.850490</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.136999</t>
+          <t>2021-10-05 14:20:30.850493</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137001</t>
+          <t>2021-10-05 14:20:30.850495</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137004</t>
+          <t>2021-10-05 14:20:30.850498</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137007</t>
+          <t>2021-10-05 14:20:30.850500</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137010</t>
+          <t>2021-10-05 14:20:30.850503</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137012</t>
+          <t>2021-10-05 14:20:30.850505</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137015</t>
+          <t>2021-10-05 14:20:30.850508</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137017</t>
+          <t>2021-10-05 14:20:30.850510</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137020</t>
+          <t>2021-10-05 14:20:30.850513</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137023</t>
+          <t>2021-10-05 14:20:30.850515</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137025</t>
+          <t>2021-10-05 14:20:30.850517</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137028</t>
+          <t>2021-10-05 14:20:30.850520</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137031</t>
+          <t>2021-10-05 14:20:30.850522</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137033</t>
+          <t>2021-10-05 14:20:30.850525</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137036</t>
+          <t>2021-10-05 14:20:30.850527</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137039</t>
+          <t>2021-10-05 14:20:30.850530</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137041</t>
+          <t>2021-10-05 14:20:30.850532</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137044</t>
+          <t>2021-10-05 14:20:30.850535</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137047</t>
+          <t>2021-10-05 14:20:30.850537</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137050</t>
+          <t>2021-10-05 14:20:30.850540</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137053</t>
+          <t>2021-10-05 14:20:30.850543</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137055</t>
+          <t>2021-10-05 14:20:30.850545</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137058</t>
+          <t>2021-10-05 14:20:30.850548</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137061</t>
+          <t>2021-10-05 14:20:30.850550</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137064</t>
+          <t>2021-10-05 14:20:30.850553</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137066</t>
+          <t>2021-10-05 14:20:30.850556</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137069</t>
+          <t>2021-10-05 14:20:30.850558</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137072</t>
+          <t>2021-10-05 14:20:30.850561</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137076</t>
+          <t>2021-10-05 14:20:30.850563</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137079</t>
+          <t>2021-10-05 14:20:30.850566</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137082</t>
+          <t>2021-10-05 14:20:30.850568</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137084</t>
+          <t>2021-10-05 14:20:30.850571</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137089</t>
+          <t>2021-10-05 14:20:30.850573</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137093</t>
+          <t>2021-10-05 14:20:30.850576</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137096</t>
+          <t>2021-10-05 14:20:30.850579</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137099</t>
+          <t>2021-10-05 14:20:30.850581</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137102</t>
+          <t>2021-10-05 14:20:30.850584</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137104</t>
+          <t>2021-10-05 14:20:30.850586</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137107</t>
+          <t>2021-10-05 14:20:30.850589</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137110</t>
+          <t>2021-10-05 14:20:30.850591</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137112</t>
+          <t>2021-10-05 14:20:30.850594</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137115</t>
+          <t>2021-10-05 14:20:30.850596</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137118</t>
+          <t>2021-10-05 14:20:30.850599</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137121</t>
+          <t>2021-10-05 14:20:30.850601</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137123</t>
+          <t>2021-10-05 14:20:30.850604</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137126</t>
+          <t>2021-10-05 14:20:30.850606</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137129</t>
+          <t>2021-10-05 14:20:30.850609</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137131</t>
+          <t>2021-10-05 14:20:30.850611</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137134</t>
+          <t>2021-10-05 14:20:30.850614</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137137</t>
+          <t>2021-10-05 14:20:30.850616</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137140</t>
+          <t>2021-10-05 14:20:30.850619</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137142</t>
+          <t>2021-10-05 14:20:30.850621</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137145</t>
+          <t>2021-10-05 14:20:30.850624</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137148</t>
+          <t>2021-10-05 14:20:30.850626</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137150</t>
+          <t>2021-10-05 14:20:30.850629</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137153</t>
+          <t>2021-10-05 14:20:30.850631</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137158</t>
+          <t>2021-10-05 14:20:30.850635</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137162</t>
+          <t>2021-10-05 14:20:30.850638</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137164</t>
+          <t>2021-10-05 14:20:30.850640</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137167</t>
+          <t>2021-10-05 14:20:30.850643</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137170</t>
+          <t>2021-10-05 14:20:30.850645</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137172</t>
+          <t>2021-10-05 14:20:30.850648</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137175</t>
+          <t>2021-10-05 14:20:30.850650</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137178</t>
+          <t>2021-10-05 14:20:30.850653</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137180</t>
+          <t>2021-10-05 14:20:30.850655</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137183</t>
+          <t>2021-10-05 14:20:30.850658</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137186</t>
+          <t>2021-10-05 14:20:30.850660</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137188</t>
+          <t>2021-10-05 14:20:30.850663</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137191</t>
+          <t>2021-10-05 14:20:30.850665</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137194</t>
+          <t>2021-10-05 14:20:30.850668</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137196</t>
+          <t>2021-10-05 14:20:30.850670</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137199</t>
+          <t>2021-10-05 14:20:30.850673</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137202</t>
+          <t>2021-10-05 14:20:30.850675</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137205</t>
+          <t>2021-10-05 14:20:30.850678</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137207</t>
+          <t>2021-10-05 14:20:30.850680</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137210</t>
+          <t>2021-10-05 14:20:30.850683</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137213</t>
+          <t>2021-10-05 14:20:30.850685</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137215</t>
+          <t>2021-10-05 14:20:30.850688</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137218</t>
+          <t>2021-10-05 14:20:30.850691</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137221</t>
+          <t>2021-10-05 14:20:30.850693</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137224</t>
+          <t>2021-10-05 14:20:30.850696</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137226</t>
+          <t>2021-10-05 14:20:30.850698</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137229</t>
+          <t>2021-10-05 14:20:30.850701</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137232</t>
+          <t>2021-10-05 14:20:30.850703</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137235</t>
+          <t>2021-10-05 14:20:30.850706</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137238</t>
+          <t>2021-10-05 14:20:30.850708</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137240</t>
+          <t>2021-10-05 14:20:30.850711</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137243</t>
+          <t>2021-10-05 14:20:30.850713</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137246</t>
+          <t>2021-10-05 14:20:30.850716</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137249</t>
+          <t>2021-10-05 14:20:30.850718</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137251</t>
+          <t>2021-10-05 14:20:30.850721</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137254</t>
+          <t>2021-10-05 14:20:30.850723</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137257</t>
+          <t>2021-10-05 14:20:30.850726</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137259</t>
+          <t>2021-10-05 14:20:30.850728</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137262</t>
+          <t>2021-10-05 14:20:30.850731</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137265</t>
+          <t>2021-10-05 14:20:30.850733</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137267</t>
+          <t>2021-10-05 14:20:30.850735</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137270</t>
+          <t>2021-10-05 14:20:30.850738</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137273</t>
+          <t>2021-10-05 14:20:30.850740</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137275</t>
+          <t>2021-10-05 14:20:30.850743</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137278</t>
+          <t>2021-10-05 14:20:30.850745</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137281</t>
+          <t>2021-10-05 14:20:30.850748</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137283</t>
+          <t>2021-10-05 14:20:30.850750</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137286</t>
+          <t>2021-10-05 14:20:30.850753</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137289</t>
+          <t>2021-10-05 14:20:30.850756</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137292</t>
+          <t>2021-10-05 14:20:30.850758</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137295</t>
+          <t>2021-10-05 14:20:30.850761</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137297</t>
+          <t>2021-10-05 14:20:30.850763</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137300</t>
+          <t>2021-10-05 14:20:30.850766</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137302</t>
+          <t>2021-10-05 14:20:30.850768</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137305</t>
+          <t>2021-10-05 14:20:30.850771</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137308</t>
+          <t>2021-10-05 14:20:30.850773</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137311</t>
+          <t>2021-10-05 14:20:30.850776</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137313</t>
+          <t>2021-10-05 14:20:30.850778</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137316</t>
+          <t>2021-10-05 14:20:30.850781</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137319</t>
+          <t>2021-10-05 14:20:30.850783</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137321</t>
+          <t>2021-10-05 14:20:30.850785</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137324</t>
+          <t>2021-10-05 14:20:30.850788</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137327</t>
+          <t>2021-10-05 14:20:30.850790</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137329</t>
+          <t>2021-10-05 14:20:30.850793</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137332</t>
+          <t>2021-10-05 14:20:30.850795</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137335</t>
+          <t>2021-10-05 14:20:30.850798</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137337</t>
+          <t>2021-10-05 14:20:30.850801</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137340</t>
+          <t>2021-10-05 14:20:30.850803</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137343</t>
+          <t>2021-10-05 14:20:30.850805</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137345</t>
+          <t>2021-10-05 14:20:30.850808</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137348</t>
+          <t>2021-10-05 14:20:30.850810</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137351</t>
+          <t>2021-10-05 14:20:30.850813</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137353</t>
+          <t>2021-10-05 14:20:30.850816</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137356</t>
+          <t>2021-10-05 14:20:30.850818</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137359</t>
+          <t>2021-10-05 14:20:30.850820</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137361</t>
+          <t>2021-10-05 14:20:30.850823</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137364</t>
+          <t>2021-10-05 14:20:30.850825</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137367</t>
+          <t>2021-10-05 14:20:30.850828</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137369</t>
+          <t>2021-10-05 14:20:30.850830</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137372</t>
+          <t>2021-10-05 14:20:30.850833</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137376</t>
+          <t>2021-10-05 14:20:30.850837</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137380</t>
+          <t>2021-10-05 14:20:30.850840</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137383</t>
+          <t>2021-10-05 14:20:30.850843</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137385</t>
+          <t>2021-10-05 14:20:30.850845</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137388</t>
+          <t>2021-10-05 14:20:30.850848</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137391</t>
+          <t>2021-10-05 14:20:30.850850</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137393</t>
+          <t>2021-10-05 14:20:30.850853</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137396</t>
+          <t>2021-10-05 14:20:30.850855</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137399</t>
+          <t>2021-10-05 14:20:30.850858</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137401</t>
+          <t>2021-10-05 14:20:30.850861</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137404</t>
+          <t>2021-10-05 14:20:30.850863</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137407</t>
+          <t>2021-10-05 14:20:30.850866</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137410</t>
+          <t>2021-10-05 14:20:30.850868</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137412</t>
+          <t>2021-10-05 14:20:30.850871</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137415</t>
+          <t>2021-10-05 14:20:30.850873</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137417</t>
+          <t>2021-10-05 14:20:30.850876</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137420</t>
+          <t>2021-10-05 14:20:30.850878</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137423</t>
+          <t>2021-10-05 14:20:30.850881</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137425</t>
+          <t>2021-10-05 14:20:30.850884</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137428</t>
+          <t>2021-10-05 14:20:30.850887</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137431</t>
+          <t>2021-10-05 14:20:30.850889</t>
         </is>
       </c>
     </row>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137434</t>
+          <t>2021-10-05 14:20:30.850892</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137436</t>
+          <t>2021-10-05 14:20:30.850895</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21337,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137439</t>
+          <t>2021-10-05 14:20:30.850897</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21367,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137441</t>
+          <t>2021-10-05 14:20:30.850900</t>
         </is>
       </c>
     </row>
@@ -21396,7 +21397,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137444</t>
+          <t>2021-10-05 14:20:30.850902</t>
         </is>
       </c>
     </row>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137447</t>
+          <t>2021-10-05 14:20:30.850905</t>
         </is>
       </c>
     </row>
@@ -21456,7 +21457,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137449</t>
+          <t>2021-10-05 14:20:30.850908</t>
         </is>
       </c>
     </row>
@@ -21486,7 +21487,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137452</t>
+          <t>2021-10-05 14:20:30.850910</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21517,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137455</t>
+          <t>2021-10-05 14:20:30.850913</t>
         </is>
       </c>
     </row>
@@ -21546,7 +21547,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137457</t>
+          <t>2021-10-05 14:20:30.850915</t>
         </is>
       </c>
     </row>
@@ -21576,7 +21577,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137460</t>
+          <t>2021-10-05 14:20:30.850918</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21607,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137463</t>
+          <t>2021-10-05 14:20:30.850920</t>
         </is>
       </c>
     </row>
@@ -21636,7 +21637,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137465</t>
+          <t>2021-10-05 14:20:30.850923</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21667,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137468</t>
+          <t>2021-10-05 14:20:30.850926</t>
         </is>
       </c>
     </row>
@@ -21696,7 +21697,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137471</t>
+          <t>2021-10-05 14:20:30.850928</t>
         </is>
       </c>
     </row>
@@ -21726,7 +21727,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137473</t>
+          <t>2021-10-05 14:20:30.850931</t>
         </is>
       </c>
     </row>
@@ -21756,7 +21757,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137476</t>
+          <t>2021-10-05 14:20:30.850933</t>
         </is>
       </c>
     </row>
@@ -21786,7 +21787,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137479</t>
+          <t>2021-10-05 14:20:30.850936</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21817,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137481</t>
+          <t>2021-10-05 14:20:30.850939</t>
         </is>
       </c>
     </row>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137484</t>
+          <t>2021-10-05 14:20:30.850941</t>
         </is>
       </c>
     </row>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137487</t>
+          <t>2021-10-05 14:20:30.850944</t>
         </is>
       </c>
     </row>
@@ -21906,7 +21907,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137490</t>
+          <t>2021-10-05 14:20:30.850946</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21937,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137493</t>
+          <t>2021-10-05 14:20:30.850949</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21967,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137495</t>
+          <t>2021-10-05 14:20:30.850951</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137498</t>
+          <t>2021-10-05 14:20:30.850954</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137501</t>
+          <t>2021-10-05 14:20:30.850956</t>
         </is>
       </c>
     </row>
@@ -22056,7 +22057,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137503</t>
+          <t>2021-10-05 14:20:30.850959</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22087,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137506</t>
+          <t>2021-10-05 14:20:30.850961</t>
         </is>
       </c>
     </row>
@@ -22116,7 +22117,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137509</t>
+          <t>2021-10-05 14:20:30.850964</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22147,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137512</t>
+          <t>2021-10-05 14:20:30.850967</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22177,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137514</t>
+          <t>2021-10-05 14:20:30.850969</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22207,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137517</t>
+          <t>2021-10-05 14:20:30.850972</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22237,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137520</t>
+          <t>2021-10-05 14:20:30.850974</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22267,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137522</t>
+          <t>2021-10-05 14:20:30.850977</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22297,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137525</t>
+          <t>2021-10-05 14:20:30.850980</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22327,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137528</t>
+          <t>2021-10-05 14:20:30.850982</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22357,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137530</t>
+          <t>2021-10-05 14:20:30.850985</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137533</t>
+          <t>2021-10-05 14:20:30.850988</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22417,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137536</t>
+          <t>2021-10-05 14:20:30.850990</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22447,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137539</t>
+          <t>2021-10-05 14:20:30.850993</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22477,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137541</t>
+          <t>2021-10-05 14:20:30.850995</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22507,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137544</t>
+          <t>2021-10-05 14:20:30.850998</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22537,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137547</t>
+          <t>2021-10-05 14:20:30.851000</t>
         </is>
       </c>
     </row>
@@ -22566,7 +22567,91 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:57.137550</t>
+          <t>2021-10-05 14:20:30.851003</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Genetic epilepsy syndromes</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>402</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.434</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-01T14:28:52.290837Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:20:30.845868</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/402/?format=json</t>
         </is>
       </c>
     </row>
